--- a/data/trans_dic/P7B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P7B_R-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 6,86</t>
+          <t>0,59; 6,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 11,19</t>
+          <t>3,49; 11,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,81</t>
+          <t>2,36; 7,01</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 7,51</t>
+          <t>2,22; 7,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,99; 17,63</t>
+          <t>3,95; 18,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,99; 12,63</t>
+          <t>3,94; 12,17</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 8,06</t>
+          <t>3,5; 7,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 6,47</t>
+          <t>3,54; 6,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 6,38</t>
+          <t>3,98; 6,46</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,88; 9,44</t>
+          <t>4,9; 9,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,26; 10,63</t>
+          <t>7,19; 10,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,65; 9,55</t>
+          <t>6,38; 9,36</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,56; 10,61</t>
+          <t>6,4; 10,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,22; 14,63</t>
+          <t>10,23; 14,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,86; 11,92</t>
+          <t>8,91; 11,98</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,59; 9,85</t>
+          <t>6,65; 10,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,01; 16,63</t>
+          <t>10,42; 16,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,41; 13,27</t>
+          <t>9,18; 13,24</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,49; 7,47</t>
+          <t>5,54; 7,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,77; 11,4</t>
+          <t>8,7; 11,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,49; 8,99</t>
+          <t>7,51; 9,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P7B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P7B_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 6,32</t>
+          <t>0,58; 6,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,49; 11,09</t>
+          <t>3,43; 11,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 7,01</t>
+          <t>2,38; 6,81</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 7,69</t>
+          <t>2,31; 7,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 18,59</t>
+          <t>3,99; 17,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,94; 12,17</t>
+          <t>3,99; 12,63</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,5; 7,67</t>
+          <t>3,63; 8,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 6,51</t>
+          <t>3,33; 6,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 6,46</t>
+          <t>3,84; 6,38</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,9; 9,41</t>
+          <t>4,88; 9,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,19; 10,65</t>
+          <t>7,26; 10,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,38; 9,36</t>
+          <t>6,65; 9,55</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,4; 10,96</t>
+          <t>6,56; 10,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,23; 14,29</t>
+          <t>10,22; 14,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,91; 11,98</t>
+          <t>8,86; 11,92</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,65; 10,16</t>
+          <t>6,59; 9,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,42; 16,96</t>
+          <t>10,01; 16,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,18; 13,24</t>
+          <t>9,41; 13,27</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,54; 7,33</t>
+          <t>5,49; 7,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,7; 11,16</t>
+          <t>8,77; 11,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,51; 9,0</t>
+          <t>7,49; 8,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P7B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P7B_R-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,09%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 6,86</t>
+          <t>0,58; 7,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 11,19</t>
+          <t>3,45; 11,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,81</t>
+          <t>2,31; 6,73</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>11,7%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 7,51</t>
+          <t>2,26; 7,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,99; 17,63</t>
+          <t>4,04; 47,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,99; 12,63</t>
+          <t>4,09; 35,91</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>4,87%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 8,06</t>
+          <t>3,58; 7,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 6,47</t>
+          <t>3,02; 6,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 6,38</t>
+          <t>3,65; 6,16</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>6,81%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,88; 9,44</t>
+          <t>2,19; 8,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,26; 10,63</t>
+          <t>6,77; 10,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,65; 9,55</t>
+          <t>4,34; 8,67</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>12,2%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>10,35%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,56; 10,61</t>
+          <t>6,54; 10,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,22; 14,63</t>
+          <t>10,12; 14,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,86; 11,92</t>
+          <t>8,86; 11,85</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>6,93%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,59; 9,85</t>
+          <t>4,25; 8,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,01; 16,63</t>
+          <t>2,95; 12,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,41; 13,27</t>
+          <t>3,37; 9,34</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>20,36%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>16,66%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,49; 7,47</t>
+          <t>8,69; 14,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,77; 11,4</t>
+          <t>17,6; 23,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,49; 8,99</t>
+          <t>14,89; 18,92</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10,73%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4,74; 7,06</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8,46; 17,67</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7,23; 12,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P7B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P7B_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 7,01</t>
+          <t>0,6; 6,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 11,32</t>
+          <t>3,53; 11,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 6,73</t>
+          <t>2,4; 6,67</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,26; 7,68</t>
+          <t>2,33; 7,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,04; 47,38</t>
+          <t>4,0; 48,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,09; 35,91</t>
+          <t>4,13; 32,04</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 7,86</t>
+          <t>3,42; 7,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,17</t>
+          <t>3,24; 6,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,16</t>
+          <t>3,69; 6,22</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 8,44</t>
+          <t>2,24; 8,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,77; 10,24</t>
+          <t>6,75; 10,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,67</t>
+          <t>3,95; 8,49</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,54; 10,58</t>
+          <t>6,62; 11,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,12; 14,51</t>
+          <t>10,29; 14,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,86; 11,85</t>
+          <t>8,88; 11,96</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,25; 8,06</t>
+          <t>4,11; 7,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,95; 12,24</t>
+          <t>2,87; 12,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,37; 9,34</t>
+          <t>3,43; 9,21</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,69; 14,63</t>
+          <t>8,16; 13,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,6; 23,15</t>
+          <t>17,58; 23,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,89; 18,92</t>
+          <t>14,69; 18,85</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,74; 7,06</t>
+          <t>4,58; 6,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,46; 17,67</t>
+          <t>8,47; 16,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,23; 12,0</t>
+          <t>7,14; 12,26</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con salud mental autopercibida regular o mala</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8876</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>20286</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>29162</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2394; 25780</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11058; 36445</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>17104; 47599</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>18883</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>90573</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>109456</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9885; 33715</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>20465; 250294</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>38684; 299753</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>27795</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>27178</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>54973</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18348; 40005</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19151; 37274</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>41583; 70170</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>48337</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>60639</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>108976</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>19865; 74455</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>48148; 74157</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>63229; 135909</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>47999</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>66841</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>114839</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>37156; 61962</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>56371; 79492</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>98492; 132607</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>21718</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>45963</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>67681</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>15148; 28772</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>17490; 73106</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>33510; 89934</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>31377</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>86692</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>118068</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>23064; 39431</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>74859; 98486</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>104084; 133569</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>796</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>204983</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>398172</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>603155</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>158608; 240805</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>314203; 625311</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>511842; 879349</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>